--- a/pr_3/data/projects.xlsx
+++ b/pr_3/data/projects.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,11 +460,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>468446</v>
+        <v>280871</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Сотрудник_320</t>
+          <t>Сотрудник_1317</t>
         </is>
       </c>
     </row>
@@ -478,11 +478,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>123416</v>
+        <v>614416</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Сотрудник_1839</t>
+          <t>Сотрудник_1718</t>
         </is>
       </c>
     </row>
@@ -496,11 +496,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>708634</v>
+        <v>385052</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Сотрудник_893</t>
+          <t>Сотрудник_1463</t>
         </is>
       </c>
     </row>
@@ -514,11 +514,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>690245</v>
+        <v>873048</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Сотрудник_822</t>
+          <t>Сотрудник_1062</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>130151</v>
+        <v>657488</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Сотрудник_1073</t>
+          <t>Сотрудник_1577</t>
         </is>
       </c>
     </row>
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>216367</v>
+        <v>759194</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Сотрудник_473</t>
+          <t>Сотрудник_1523</t>
         </is>
       </c>
     </row>
@@ -568,11 +568,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>369831</v>
+        <v>577547</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Сотрудник_1148</t>
+          <t>Сотрудник_1761</t>
         </is>
       </c>
     </row>
@@ -586,11 +586,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>282968</v>
+        <v>727086</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Сотрудник_895</t>
+          <t>Сотрудник_1423</t>
         </is>
       </c>
     </row>
@@ -604,11 +604,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>969563</v>
+        <v>820985</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Сотрудник_1959</t>
+          <t>Сотрудник_1527</t>
         </is>
       </c>
     </row>
@@ -622,11 +622,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>501205</v>
+        <v>630748</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Сотрудник_1908</t>
+          <t>Сотрудник_321</t>
         </is>
       </c>
     </row>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>274639</v>
+        <v>716628</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Сотрудник_774</t>
+          <t>Сотрудник_12</t>
         </is>
       </c>
     </row>
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>563731</v>
+        <v>474645</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Сотрудник_637</t>
+          <t>Сотрудник_1317</t>
         </is>
       </c>
     </row>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>672979</v>
+        <v>808066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Сотрудник_545</t>
+          <t>Сотрудник_467</t>
         </is>
       </c>
     </row>
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>694452</v>
+        <v>604928</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Сотрудник_145</t>
+          <t>Сотрудник_200</t>
         </is>
       </c>
     </row>
@@ -712,11 +712,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>427206</v>
+        <v>636001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Сотрудник_435</t>
+          <t>Сотрудник_1096</t>
         </is>
       </c>
     </row>
@@ -730,11 +730,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>382253</v>
+        <v>194878</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Сотрудник_1327</t>
+          <t>Сотрудник_469</t>
         </is>
       </c>
     </row>
@@ -748,11 +748,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>217276</v>
+        <v>517287</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Сотрудник_472</t>
+          <t>Сотрудник_1841</t>
         </is>
       </c>
     </row>
@@ -766,11 +766,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>661734</v>
+        <v>571165</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Сотрудник_945</t>
+          <t>Сотрудник_1333</t>
         </is>
       </c>
     </row>
@@ -784,11 +784,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>396884</v>
+        <v>530303</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Сотрудник_182</t>
+          <t>Сотрудник_1175</t>
         </is>
       </c>
     </row>
@@ -802,11 +802,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>264373</v>
+        <v>664962</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Сотрудник_1566</t>
+          <t>Сотрудник_150</t>
         </is>
       </c>
     </row>
@@ -820,11 +820,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>931791</v>
+        <v>561898</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Сотрудник_1868</t>
+          <t>Сотрудник_1336</t>
         </is>
       </c>
     </row>
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>946640</v>
+        <v>670491</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Сотрудник_1784</t>
+          <t>Сотрудник_718</t>
         </is>
       </c>
     </row>
@@ -856,11 +856,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>598870</v>
+        <v>171663</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Сотрудник_174</t>
+          <t>Сотрудник_1652</t>
         </is>
       </c>
     </row>
@@ -874,11 +874,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>962628</v>
+        <v>136812</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Сотрудник_243</t>
+          <t>Сотрудник_908</t>
         </is>
       </c>
     </row>
@@ -892,11 +892,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>227148</v>
+        <v>698693</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Сотрудник_645</t>
+          <t>Сотрудник_1393</t>
         </is>
       </c>
     </row>
@@ -910,11 +910,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>746774</v>
+        <v>556587</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Сотрудник_1402</t>
+          <t>Сотрудник_505</t>
         </is>
       </c>
     </row>
@@ -928,11 +928,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>934999</v>
+        <v>170369</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Сотрудник_1329</t>
+          <t>Сотрудник_1284</t>
         </is>
       </c>
     </row>
@@ -946,11 +946,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>484525</v>
+        <v>817173</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Сотрудник_1698</t>
+          <t>Сотрудник_1937</t>
         </is>
       </c>
     </row>
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>626671</v>
+        <v>350677</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Сотрудник_1990</t>
+          <t>Сотрудник_1227</t>
         </is>
       </c>
     </row>
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>968469</v>
+        <v>496374</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Сотрудник_595</t>
+          <t>Сотрудник_139</t>
         </is>
       </c>
     </row>
@@ -1000,11 +1000,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>558898</v>
+        <v>288144</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Сотрудник_88</t>
+          <t>Сотрудник_1679</t>
         </is>
       </c>
     </row>
@@ -1018,11 +1018,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>436121</v>
+        <v>874324</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Сотрудник_1750</t>
+          <t>Сотрудник_1608</t>
         </is>
       </c>
     </row>
@@ -1036,11 +1036,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>157767</v>
+        <v>594081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Сотрудник_587</t>
+          <t>Сотрудник_423</t>
         </is>
       </c>
     </row>
@@ -1054,11 +1054,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>507683</v>
+        <v>252913</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Сотрудник_301</t>
+          <t>Сотрудник_964</t>
         </is>
       </c>
     </row>
@@ -1072,11 +1072,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>122173</v>
+        <v>938625</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Сотрудник_716</t>
+          <t>Сотрудник_1420</t>
         </is>
       </c>
     </row>
@@ -1090,11 +1090,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>893845</v>
+        <v>136064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Сотрудник_92</t>
+          <t>Сотрудник_1938</t>
         </is>
       </c>
     </row>
@@ -1108,11 +1108,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>290345</v>
+        <v>867702</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Сотрудник_954</t>
+          <t>Сотрудник_1645</t>
         </is>
       </c>
     </row>
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>761423</v>
+        <v>683690</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Сотрудник_1625</t>
+          <t>Сотрудник_492</t>
         </is>
       </c>
     </row>
@@ -1144,11 +1144,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>565795</v>
+        <v>817202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Сотрудник_843</t>
+          <t>Сотрудник_433</t>
         </is>
       </c>
     </row>
@@ -1162,11 +1162,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>737713</v>
+        <v>185884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Сотрудник_177</t>
+          <t>Сотрудник_1944</t>
         </is>
       </c>
     </row>
@@ -1180,11 +1180,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>939334</v>
+        <v>837745</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Сотрудник_1926</t>
+          <t>Сотрудник_986</t>
         </is>
       </c>
     </row>
@@ -1198,11 +1198,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>658637</v>
+        <v>104123</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Сотрудник_1166</t>
+          <t>Сотрудник_102</t>
         </is>
       </c>
     </row>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>986278</v>
+        <v>180035</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Сотрудник_1908</t>
+          <t>Сотрудник_459</t>
         </is>
       </c>
     </row>
@@ -1234,11 +1234,11 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>197088</v>
+        <v>169452</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Сотрудник_98</t>
+          <t>Сотрудник_570</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>210454</v>
+        <v>156883</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Сотрудник_1979</t>
+          <t>Сотрудник_728</t>
         </is>
       </c>
     </row>
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>113218</v>
+        <v>476496</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Сотрудник_1227</t>
+          <t>Сотрудник_613</t>
         </is>
       </c>
     </row>
@@ -1288,11 +1288,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>548656</v>
+        <v>176986</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Сотрудник_1883</t>
+          <t>Сотрудник_859</t>
         </is>
       </c>
     </row>
@@ -1306,11 +1306,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>323540</v>
+        <v>521825</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Сотрудник_1602</t>
+          <t>Сотрудник_1366</t>
         </is>
       </c>
     </row>
@@ -1324,11 +1324,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>260437</v>
+        <v>952178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Сотрудник_1238</t>
+          <t>Сотрудник_34</t>
         </is>
       </c>
     </row>
@@ -1342,11 +1342,11 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>474629</v>
+        <v>131675</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Сотрудник_616</t>
+          <t>Сотрудник_991</t>
         </is>
       </c>
     </row>
@@ -1360,11 +1360,11 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>397245</v>
+        <v>940720</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Сотрудник_1439</t>
+          <t>Сотрудник_1302</t>
         </is>
       </c>
     </row>
@@ -1378,11 +1378,11 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>987200</v>
+        <v>629931</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Сотрудник_560</t>
+          <t>Сотрудник_1314</t>
         </is>
       </c>
     </row>
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>615729</v>
+        <v>649721</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Сотрудник_447</t>
+          <t>Сотрудник_266</t>
         </is>
       </c>
     </row>
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>179402</v>
+        <v>931988</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Сотрудник_1709</t>
+          <t>Сотрудник_379</t>
         </is>
       </c>
     </row>
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>820056</v>
+        <v>125096</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Сотрудник_1643</t>
+          <t>Сотрудник_1465</t>
         </is>
       </c>
     </row>
@@ -1450,11 +1450,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>652383</v>
+        <v>159115</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Сотрудник_203</t>
+          <t>Сотрудник_865</t>
         </is>
       </c>
     </row>
@@ -1468,11 +1468,11 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>709320</v>
+        <v>460587</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Сотрудник_891</t>
+          <t>Сотрудник_723</t>
         </is>
       </c>
     </row>
@@ -1486,11 +1486,11 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>988343</v>
+        <v>616640</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Сотрудник_1875</t>
+          <t>Сотрудник_540</t>
         </is>
       </c>
     </row>
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>370986</v>
+        <v>782305</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Сотрудник_975</t>
+          <t>Сотрудник_777</t>
         </is>
       </c>
     </row>
@@ -1522,11 +1522,11 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>573992</v>
+        <v>480394</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Сотрудник_1225</t>
+          <t>Сотрудник_381</t>
         </is>
       </c>
     </row>
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>929971</v>
+        <v>430999</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Сотрудник_1743</t>
+          <t>Сотрудник_1019</t>
         </is>
       </c>
     </row>
@@ -1558,11 +1558,11 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>809822</v>
+        <v>758003</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Сотрудник_1546</t>
+          <t>Сотрудник_82</t>
         </is>
       </c>
     </row>
@@ -1576,11 +1576,11 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>897233</v>
+        <v>506890</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Сотрудник_439</t>
+          <t>Сотрудник_179</t>
         </is>
       </c>
     </row>
@@ -1594,11 +1594,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>983604</v>
+        <v>503956</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Сотрудник_1956</t>
+          <t>Сотрудник_1340</t>
         </is>
       </c>
     </row>
@@ -1612,11 +1612,11 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>754662</v>
+        <v>953421</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Сотрудник_750</t>
+          <t>Сотрудник_1166</t>
         </is>
       </c>
     </row>
@@ -1630,11 +1630,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>734011</v>
+        <v>142327</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Сотрудник_341</t>
+          <t>Сотрудник_596</t>
         </is>
       </c>
     </row>
@@ -1648,11 +1648,11 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>676269</v>
+        <v>718227</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Сотрудник_670</t>
+          <t>Сотрудник_1781</t>
         </is>
       </c>
     </row>
@@ -1666,11 +1666,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>715849</v>
+        <v>245118</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Сотрудник_1178</t>
+          <t>Сотрудник_1636</t>
         </is>
       </c>
     </row>
@@ -1684,11 +1684,11 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>311255</v>
+        <v>345423</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Сотрудник_1267</t>
+          <t>Сотрудник_1443</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>189200</v>
+        <v>440817</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Сотрудник_1192</t>
+          <t>Сотрудник_1820</t>
         </is>
       </c>
     </row>
@@ -1720,11 +1720,11 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>139145</v>
+        <v>684386</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Сотрудник_313</t>
+          <t>Сотрудник_1463</t>
         </is>
       </c>
     </row>
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>109137</v>
+        <v>985672</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Сотрудник_727</t>
+          <t>Сотрудник_1714</t>
         </is>
       </c>
     </row>
@@ -1756,11 +1756,11 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>678024</v>
+        <v>715570</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Сотрудник_1570</t>
+          <t>Сотрудник_773</t>
         </is>
       </c>
     </row>
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>796598</v>
+        <v>258532</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Сотрудник_719</t>
+          <t>Сотрудник_984</t>
         </is>
       </c>
     </row>
@@ -1792,11 +1792,11 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>584352</v>
+        <v>390978</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Сотрудник_213</t>
+          <t>Сотрудник_1837</t>
         </is>
       </c>
     </row>
@@ -1810,11 +1810,11 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>743261</v>
+        <v>106386</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Сотрудник_1590</t>
+          <t>Сотрудник_125</t>
         </is>
       </c>
     </row>
@@ -1828,11 +1828,11 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>312092</v>
+        <v>334883</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Сотрудник_36</t>
+          <t>Сотрудник_149</t>
         </is>
       </c>
     </row>
@@ -1846,11 +1846,11 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>724686</v>
+        <v>599826</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Сотрудник_1055</t>
+          <t>Сотрудник_799</t>
         </is>
       </c>
     </row>
@@ -1864,11 +1864,11 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>394683</v>
+        <v>894450</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Сотрудник_1357</t>
+          <t>Сотрудник_373</t>
         </is>
       </c>
     </row>
@@ -1882,11 +1882,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>297013</v>
+        <v>236994</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Сотрудник_859</t>
+          <t>Сотрудник_806</t>
         </is>
       </c>
     </row>
@@ -1900,11 +1900,11 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>522430</v>
+        <v>123096</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Сотрудник_501</t>
+          <t>Сотрудник_104</t>
         </is>
       </c>
     </row>
@@ -1918,11 +1918,11 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>748233</v>
+        <v>538379</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Сотрудник_1862</t>
+          <t>Сотрудник_1042</t>
         </is>
       </c>
     </row>
@@ -1936,11 +1936,11 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>701270</v>
+        <v>845512</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Сотрудник_106</t>
+          <t>Сотрудник_1014</t>
         </is>
       </c>
     </row>
@@ -1954,11 +1954,11 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>434635</v>
+        <v>426965</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Сотрудник_204</t>
+          <t>Сотрудник_7</t>
         </is>
       </c>
     </row>
@@ -1972,11 +1972,11 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>388154</v>
+        <v>963923</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Сотрудник_826</t>
+          <t>Сотрудник_402</t>
         </is>
       </c>
     </row>
@@ -1990,11 +1990,11 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>418678</v>
+        <v>141146</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Сотрудник_1417</t>
+          <t>Сотрудник_488</t>
         </is>
       </c>
     </row>
@@ -2008,11 +2008,11 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>689437</v>
+        <v>360141</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Сотрудник_867</t>
+          <t>Сотрудник_727</t>
         </is>
       </c>
     </row>
@@ -2026,11 +2026,11 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>281410</v>
+        <v>421329</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Сотрудник_1232</t>
+          <t>Сотрудник_92</t>
         </is>
       </c>
     </row>
@@ -2044,11 +2044,11 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>958441</v>
+        <v>272744</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Сотрудник_1005</t>
+          <t>Сотрудник_951</t>
         </is>
       </c>
     </row>
@@ -2062,11 +2062,11 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>330818</v>
+        <v>431661</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Сотрудник_1813</t>
+          <t>Сотрудник_399</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>552717</v>
+        <v>729997</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,11 +2098,11 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>585814</v>
+        <v>472388</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Сотрудник_1280</t>
+          <t>Сотрудник_1189</t>
         </is>
       </c>
     </row>
@@ -2116,11 +2116,11 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>320306</v>
+        <v>428232</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Сотрудник_1772</t>
+          <t>Сотрудник_1588</t>
         </is>
       </c>
     </row>
@@ -2134,11 +2134,11 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>264355</v>
+        <v>247883</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Сотрудник_1535</t>
+          <t>Сотрудник_1895</t>
         </is>
       </c>
     </row>
@@ -2152,11 +2152,11 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>171383</v>
+        <v>554115</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Сотрудник_922</t>
+          <t>Сотрудник_1851</t>
         </is>
       </c>
     </row>
@@ -2170,11 +2170,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>346560</v>
+        <v>764026</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Сотрудник_670</t>
+          <t>Сотрудник_1979</t>
         </is>
       </c>
     </row>
@@ -2188,11 +2188,11 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>252742</v>
+        <v>995187</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Сотрудник_219</t>
+          <t>Сотрудник_1216</t>
         </is>
       </c>
     </row>
@@ -2206,11 +2206,11 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>171475</v>
+        <v>671735</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Сотрудник_140</t>
+          <t>Сотрудник_1906</t>
         </is>
       </c>
     </row>
@@ -2224,11 +2224,11 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>465399</v>
+        <v>301328</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Сотрудник_1840</t>
+          <t>Сотрудник_924</t>
         </is>
       </c>
     </row>
@@ -2242,11 +2242,11 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>575981</v>
+        <v>774799</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Сотрудник_1736</t>
+          <t>Сотрудник_955</t>
         </is>
       </c>
     </row>
